--- a/table.1.modified.xlsx
+++ b/table.1.modified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6baec2b09149586/Research/residency.notes/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{67C76C41-6E02-41F3-AEBF-74EBDAC8F165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF4B0C19-BAF1-4FD8-A226-4AC567851D1A}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{67C76C41-6E02-41F3-AEBF-74EBDAC8F165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D12877F-BDB0-4365-8BB9-6D8D56CFFAA7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A36654B4-7D1A-431D-9FD8-C224A82B88D3}"/>
+    <workbookView xWindow="28680" yWindow="-6360" windowWidth="16440" windowHeight="28320" xr2:uid="{A36654B4-7D1A-431D-9FD8-C224A82B88D3}"/>
   </bookViews>
   <sheets>
     <sheet name="table.1" sheetId="1" r:id="rId1"/>
@@ -712,17 +712,17 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DBEFA1-C753-46A4-8B37-3C8A48185E7C}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,28 +1127,28 @@
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1156,61 +1156,61 @@
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <v>37672</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>7365</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>36</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>1281</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>302</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1218,67 +1218,65 @@
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>13868</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>7127</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>4610</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>286</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>568</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>59</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>10310</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>613</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3142</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>123</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>154</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
         <v>5</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>153</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1286,34 +1284,34 @@
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>7770</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1016</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1051</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>2847</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>142</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>2</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <v>6</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>135</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1321,32 +1319,30 @@
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>4769</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4481</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2058</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>866</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>29</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1354,38 +1350,38 @@
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>6579</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1848</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>586</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>19</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>23</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>3</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>119</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3">
         <v>7</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>6</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1393,32 +1389,32 @@
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>11</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <v>12</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>69</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <v>6235</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1426,36 +1422,36 @@
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>2547</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>984</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>903</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>20</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>10</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>21</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>784</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <v>3</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>16</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1463,38 +1459,38 @@
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2364</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>693</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>328</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>47</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>9</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>5</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>1428</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>1</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>2</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1502,38 +1498,38 @@
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1950</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>575</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>498</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>13</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>860</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>6</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1541,36 +1537,36 @@
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>1058</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1180</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1098</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>21</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>15</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>6</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>509</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
         <v>2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>12</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1578,36 +1574,36 @@
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>273</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>485</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>312</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>4</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>1504</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
         <v>5</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>1</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1615,40 +1611,38 @@
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>225</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>23</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>30</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>205</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>1589</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>8</v>
       </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
         <v>17</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>191</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1656,32 +1650,30 @@
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>749</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>449</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>224</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>22</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>6</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <v>748</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1689,34 +1681,34 @@
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>885</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>9</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>536</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>105</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
         <v>2</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>14</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>3</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1724,26 +1716,24 @@
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <v>1398</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
         <v>2</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1751,26 +1741,26 @@
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
         <v>2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>508</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
         <v>1</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1778,40 +1768,40 @@
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="3" t="s">
         <v>41</v>
       </c>
     </row>
